--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2793.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2793.xlsx
@@ -354,7 +354,7 @@
         <v>2.438332301944913</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.364690610321088</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2793.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2793.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.169793804719875</v>
+        <v>0.9933785796165466</v>
       </c>
       <c r="B1">
-        <v>2.438332301944913</v>
+        <v>1.78658127784729</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>4.999735355377197</v>
       </c>
       <c r="D1">
-        <v>2.364690610321088</v>
+        <v>1.376420736312866</v>
       </c>
       <c r="E1">
-        <v>1.231621638144386</v>
+        <v>1.320993423461914</v>
       </c>
     </row>
   </sheetData>
